--- a/students.xlsx
+++ b/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alimtleuliyev/Documents/GitHub/nu-housing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience Vault\ProjectsGithub\PythonBase\nu-housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6314CF7-A775-2143-A611-2B5417C81578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12F801-E04D-43D0-982C-F93EF1B81CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Roomate2</t>
-  </si>
-  <si>
-    <t>Roomate3</t>
   </si>
   <si>
     <t>Male</t>
@@ -113,10 +110,78 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -133,10 +198,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="DEDEDE"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="181B28"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -391,23 +456,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,19 +491,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>202107823</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -447,15 +509,15 @@
         <v>201922256</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>202031974</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -464,15 +526,15 @@
         <v>202015678</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>201922256</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -481,15 +543,15 @@
         <v>202107823</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>202015678</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -498,15 +560,15 @@
         <v>202031974</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>202121134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -515,15 +577,15 @@
         <v>202013756</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>202021479</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -532,29 +594,29 @@
         <v>202021013</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>202031123</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>202013756</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -563,15 +625,15 @@
         <v>202121134</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>202021013</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>2</v>
